--- a/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hpfm-data.xlsx
+++ b/src/main/resources/script/db/init-data/hrds_prod_repo/hzero_platform/hpfm-data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="194">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-02</t>
+    <t>2020-06-11</t>
   </si>
   <si>
     <t>xiuhong.chen</t>
@@ -2194,18 +2194,18 @@
     <t>*</t>
   </si>
   <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
     <t>update</t>
   </si>
   <si>
     <t>更新</t>
   </si>
   <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>分配</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -2221,39 +2221,33 @@
     <t>projectAdmin</t>
   </si>
   <si>
-    <t>项目管理员</t>
+    <t>仓库管理员</t>
   </si>
   <si>
     <t>developer</t>
   </si>
   <si>
-    <t>开发人员(pull、push)</t>
-  </si>
-  <si>
     <t>开发人员</t>
   </si>
   <si>
     <t>guest</t>
   </si>
   <si>
-    <t>访客(pull)</t>
-  </si>
-  <si>
     <t>访客</t>
   </si>
   <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>拉取</t>
+  </si>
+  <si>
     <t>push</t>
   </si>
   <si>
     <t>推送</t>
   </si>
   <si>
-    <t>pull</t>
-  </si>
-  <si>
-    <t>拉取</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -2305,19 +2299,43 @@
     <t>只读</t>
   </si>
   <si>
+    <t>PROXY</t>
+  </si>
+  <si>
+    <t>REPOSITORY</t>
+  </si>
+  <si>
     <t>repository</t>
   </si>
   <si>
+    <t>RELEASES</t>
+  </si>
+  <si>
     <t>releases</t>
   </si>
   <si>
+    <t>SNAPSHOTS</t>
+  </si>
+  <si>
     <t>snapshots</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>GROUP</t>
+  </si>
+  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>npm-hosted类型</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>low</t>
@@ -3494,7 +3512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4036,7 +4054,7 @@
         <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s">
         <v>74</v>
@@ -4059,13 +4077,13 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
         <v>129</v>
       </c>
-      <c r="I25" t="s">
-        <v>130</v>
-      </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s">
         <v>74</v>
@@ -4088,13 +4106,13 @@
         <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M26" t="s">
         <v>74</v>
@@ -4117,13 +4135,13 @@
         <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s">
         <v>74</v>
@@ -4146,13 +4164,13 @@
         <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s">
         <v>74</v>
@@ -4175,13 +4193,13 @@
         <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s">
         <v>74</v>
@@ -4204,13 +4222,13 @@
         <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s">
         <v>74</v>
@@ -4233,13 +4251,13 @@
         <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M31" t="s">
         <v>74</v>
@@ -4262,13 +4280,13 @@
         <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s">
         <v>74</v>
@@ -4291,13 +4309,13 @@
         <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M33" t="s">
         <v>74</v>
@@ -4320,13 +4338,13 @@
         <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M34" t="s">
         <v>74</v>
@@ -4349,13 +4367,13 @@
         <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M35" t="s">
         <v>74</v>
@@ -4378,13 +4396,13 @@
         <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M36" t="s">
         <v>74</v>
@@ -4407,13 +4425,13 @@
         <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s">
         <v>74</v>
@@ -4468,10 +4486,10 @@
         <v>126</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s">
         <v>74</v>
@@ -4494,13 +4512,13 @@
         <v>92</v>
       </c>
       <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
         <v>129</v>
       </c>
-      <c r="I40" t="s">
-        <v>131</v>
-      </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M40" t="s">
         <v>74</v>
@@ -4523,13 +4541,13 @@
         <v>95</v>
       </c>
       <c r="H41" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s">
         <v>74</v>
@@ -4552,7 +4570,7 @@
         <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
         <v>153</v>
@@ -4584,10 +4602,10 @@
         <v>154</v>
       </c>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M43" t="s">
         <v>74</v>
@@ -4610,19 +4628,19 @@
         <v>95</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s">
         <v>74</v>
       </c>
       <c r="O44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="S44" t="s">
         <v>75</v>
@@ -4639,19 +4657,19 @@
         <v>95</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s">
         <v>74</v>
       </c>
       <c r="O45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S45" t="s">
         <v>75</v>
@@ -4662,25 +4680,25 @@
         <v>115</v>
       </c>
       <c r="F46">
-        <f>值集!$E$16</f>
+        <f>值集!$E$15</f>
       </c>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M46" t="s">
         <v>74</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="S46" t="s">
         <v>75</v>
@@ -4697,19 +4715,19 @@
         <v>98</v>
       </c>
       <c r="H47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M47" t="s">
         <v>74</v>
       </c>
       <c r="O47" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="S47" t="s">
         <v>75</v>
@@ -4726,19 +4744,19 @@
         <v>98</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s">
         <v>74</v>
       </c>
       <c r="O48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S48" t="s">
         <v>75</v>
@@ -4755,19 +4773,19 @@
         <v>98</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M49" t="s">
         <v>74</v>
       </c>
       <c r="O49" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="S49" t="s">
         <v>75</v>
@@ -4778,25 +4796,25 @@
         <v>115</v>
       </c>
       <c r="F50">
-        <f>值集!$E$17</f>
+        <f>值集!$E$16</f>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s">
         <v>74</v>
       </c>
       <c r="O50" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="S50" t="s">
         <v>75</v>
@@ -4813,19 +4831,19 @@
         <v>101</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M51" t="s">
         <v>74</v>
       </c>
       <c r="O51" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="S51" t="s">
         <v>75</v>
@@ -4842,118 +4860,147 @@
         <v>101</v>
       </c>
       <c r="H52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M52" t="s">
         <v>74</v>
       </c>
       <c r="O52" t="s">
+        <v>120</v>
+      </c>
+      <c r="S52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53">
+        <f>值集!$E$17</f>
+      </c>
+      <c r="G53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" t="s">
+        <v>174</v>
+      </c>
+      <c r="M53" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" t="s">
         <v>123</v>
       </c>
-      <c r="S52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
+      <c r="S53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s" s="49">
-        <v>169</v>
-      </c>
-      <c r="E54" t="s" s="50">
-        <v>170</v>
-      </c>
-      <c r="F54" t="s" s="51">
-        <v>171</v>
-      </c>
-      <c r="G54" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54" t="s" s="52">
-        <v>173</v>
-      </c>
-      <c r="I54" t="s" s="53">
+      <c r="D55" t="s" s="49">
+        <v>175</v>
+      </c>
+      <c r="E55" t="s" s="50">
+        <v>176</v>
+      </c>
+      <c r="F55" t="s" s="51">
+        <v>177</v>
+      </c>
+      <c r="G55" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" t="s" s="52">
+        <v>179</v>
+      </c>
+      <c r="I55" t="s" s="53">
         <v>61</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J55" t="s">
         <v>66</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K55" t="s">
         <v>67</v>
       </c>
-      <c r="L54" t="s">
-        <v>174</v>
-      </c>
-      <c r="M54" t="s">
-        <v>175</v>
-      </c>
-      <c r="N54" t="s">
-        <v>176</v>
-      </c>
-      <c r="O54" t="s">
-        <v>177</v>
-      </c>
-      <c r="P54" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>179</v>
-      </c>
-      <c r="R54" t="s">
+      <c r="L55" t="s">
+        <v>180</v>
+      </c>
+      <c r="M55" t="s">
+        <v>181</v>
+      </c>
+      <c r="N55" t="s">
+        <v>182</v>
+      </c>
+      <c r="O55" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>185</v>
+      </c>
+      <c r="R55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="57">
+      <c r="A57" t="s">
         <v>50</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
-      <c r="D56" t="s" s="54">
-        <v>180</v>
-      </c>
-      <c r="E56" t="s" s="55">
-        <v>181</v>
-      </c>
-      <c r="F56" t="s" s="56">
-        <v>182</v>
-      </c>
-      <c r="G56" t="s" s="57">
+      <c r="D57" t="s" s="54">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s" s="55">
+        <v>187</v>
+      </c>
+      <c r="F57" t="s" s="56">
+        <v>188</v>
+      </c>
+      <c r="G57" t="s" s="57">
         <v>61</v>
       </c>
-      <c r="H56" t="s" s="58">
+      <c r="H57" t="s" s="58">
         <v>105</v>
       </c>
-      <c r="I56" t="s">
-        <v>183</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I57" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" t="s">
         <v>111</v>
       </c>
-      <c r="K56" t="s" s="59">
-        <v>184</v>
-      </c>
-      <c r="L56" t="s">
-        <v>185</v>
-      </c>
-      <c r="M56" t="s">
-        <v>186</v>
-      </c>
-      <c r="N56" t="s">
-        <v>187</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="K57" t="s" s="59">
+        <v>190</v>
+      </c>
+      <c r="L57" t="s">
+        <v>191</v>
+      </c>
+      <c r="M57" t="s">
+        <v>192</v>
+      </c>
+      <c r="N57" t="s">
+        <v>193</v>
+      </c>
+      <c r="O57" t="s">
         <v>69</v>
       </c>
     </row>
